--- a/报价表/辐射防护集成监控系统功能点人月.xlsx
+++ b/报价表/辐射防护集成监控系统功能点人月.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RadiationSystem\报价表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4FAA2A-1CF1-42B6-8125-42FE7D02C605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5DB755-B0D7-4EE1-9E9B-20DEB393AC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,10 @@
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
     <sheet name="辐射防护集成监控系统" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -288,10 +282,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>人工费（人工费= 人月数 * 1.86万）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -576,13 +566,17 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>工作量*人月单价=68.9人.月*1.86万
+    <t>人工费（人工费= 人月数 * 2.14万）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量*人月单价=68.9人.月*2.14万
 工作量明细详见《工作量评估表》
 项目包含项目经理、开发、测试、质量等人员；</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>壹佰肆拾贰万陆仟肆佰元整</t>
+    <t>壹佰柒拾伍万伍仟肆佰元整</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,6 +974,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1378,8 +1375,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -1707,12 +1704,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="A1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1835,7 +1832,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="23">
         <f>辐射防护集成监控系统!F69</f>
-        <v>128.154</v>
+        <v>157.7179999999999</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -1876,7 +1873,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="6">
         <f>SUM(C17,C16,C14,C12,C10,C4,C3)*0.05</f>
-        <v>6.4077000000000002</v>
+        <v>7.8858999999999959</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>25</v>
@@ -1889,7 +1886,7 @@
       <c r="B19" s="9"/>
       <c r="C19" s="6">
         <f>SUM(C16,C17,C14,C4,C18)*D21</f>
-        <v>8.073701999999999</v>
+        <v>9.9362339999999936</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -1928,7 +1925,7 @@
       <c r="B23" s="18"/>
       <c r="C23" s="19">
         <f>SUM(C18,C19,C17,C16,C14,C4)</f>
-        <v>142.635402</v>
+        <v>175.54013399999991</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>99</v>
@@ -1954,8 +1951,8 @@
   </sheetPr>
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -1970,62 +1967,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" s="31" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" s="31" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" s="31" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:7" s="31" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="31" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="57" t="s">
+      <c r="E4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="29">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="30"/>
     </row>
@@ -2033,14 +2030,14 @@
       <c r="A5" s="40">
         <v>2</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="30"/>
     </row>
@@ -2048,11 +2045,11 @@
       <c r="A6" s="40">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="29">
         <v>0.8</v>
@@ -2063,14 +2060,14 @@
       <c r="A7" s="40">
         <v>4</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="29">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G7" s="34"/>
     </row>
@@ -2078,11 +2075,11 @@
       <c r="A8" s="40">
         <v>5</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="29">
         <v>0.4</v>
@@ -2093,11 +2090,11 @@
       <c r="A9" s="40">
         <v>6</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="38">
         <v>0.6</v>
@@ -2108,13 +2105,13 @@
       <c r="A10" s="40">
         <v>7</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57" t="s">
-        <v>43</v>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="38">
         <v>0.4</v>
@@ -2125,11 +2122,11 @@
       <c r="A11" s="40">
         <v>8</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="38">
         <v>0.4</v>
@@ -2140,11 +2137,11 @@
       <c r="A12" s="40">
         <v>9</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="29">
         <v>0.8</v>
@@ -2155,11 +2152,11 @@
       <c r="A13" s="40">
         <v>10</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="59"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="37">
         <v>0.8</v>
@@ -2170,16 +2167,16 @@
       <c r="A14" s="40">
         <v>11</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
-        <v>46</v>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="38">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="34"/>
     </row>
@@ -2187,14 +2184,14 @@
       <c r="A15" s="40">
         <v>12</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="37">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G15" s="34"/>
     </row>
@@ -2202,48 +2199,48 @@
       <c r="A16" s="40">
         <v>13</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="37">
         <v>7.2</v>
       </c>
-      <c r="G16" s="62" t="s">
-        <v>73</v>
+      <c r="G16" s="63" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="40">
         <v>14</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="38">
-        <v>2.1</v>
-      </c>
-      <c r="G17" s="63"/>
+        <v>4.5</v>
+      </c>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" s="31" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="40">
         <v>15</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57" t="s">
-        <v>59</v>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="38">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="34"/>
     </row>
@@ -2251,14 +2248,14 @@
       <c r="A19" s="40">
         <v>16</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="58"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="38">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G19" s="34"/>
     </row>
@@ -2266,14 +2263,14 @@
       <c r="A20" s="40">
         <v>17</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="38">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G20" s="34"/>
     </row>
@@ -2281,14 +2278,14 @@
       <c r="A21" s="40">
         <v>18</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="58"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="38">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G21" s="34"/>
     </row>
@@ -2296,14 +2293,14 @@
       <c r="A22" s="40">
         <v>19</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="58"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="38">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G22" s="34"/>
     </row>
@@ -2311,14 +2308,14 @@
       <c r="A23" s="40">
         <v>20</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="59"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G23" s="34"/>
     </row>
@@ -2326,13 +2323,13 @@
       <c r="A24" s="40">
         <v>21</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>48</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>49</v>
       </c>
       <c r="F24" s="29">
         <v>0.6</v>
@@ -2343,11 +2340,11 @@
       <c r="A25" s="40">
         <v>22</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="38">
         <v>0.4</v>
@@ -2358,11 +2355,11 @@
       <c r="A26" s="40">
         <v>23</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="58"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="38">
         <v>0.8</v>
@@ -2373,11 +2370,11 @@
       <c r="A27" s="40">
         <v>24</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="38">
         <v>0.4</v>
@@ -2388,11 +2385,11 @@
       <c r="A28" s="40">
         <v>25</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="58"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="38">
         <v>0.6</v>
@@ -2403,11 +2400,11 @@
       <c r="A29" s="40">
         <v>26</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="58"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="38">
         <v>0.5</v>
@@ -2418,11 +2415,11 @@
       <c r="A30" s="40">
         <v>27</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="58"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="38">
         <v>1.8</v>
@@ -2433,11 +2430,11 @@
       <c r="A31" s="40">
         <v>28</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="58"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="38">
         <v>0.5</v>
@@ -2448,11 +2445,11 @@
       <c r="A32" s="40">
         <v>29</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="59"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="38">
         <v>0.7</v>
@@ -2463,62 +2460,62 @@
       <c r="A33" s="40">
         <v>30</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57" t="s">
-        <v>54</v>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="38">
         <v>2.7</v>
       </c>
-      <c r="G33" s="60" t="s">
-        <v>79</v>
+      <c r="G33" s="61" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="40">
         <v>31</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="58"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="38">
         <v>1.8</v>
       </c>
-      <c r="G34" s="65"/>
+      <c r="G34" s="66"/>
     </row>
     <row r="35" spans="1:7" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="40">
         <v>32</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="38">
-        <v>1.8</v>
-      </c>
-      <c r="G35" s="61"/>
+        <v>3.6</v>
+      </c>
+      <c r="G35" s="62"/>
     </row>
     <row r="36" spans="1:7" s="31" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="40">
         <v>33</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57" t="s">
-        <v>55</v>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" s="38">
         <v>0.5</v>
@@ -2529,11 +2526,11 @@
       <c r="A37" s="40">
         <v>34</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="38">
         <v>0.3</v>
@@ -2544,11 +2541,11 @@
       <c r="A38" s="40">
         <v>35</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" s="38">
         <v>0.3</v>
@@ -2559,11 +2556,11 @@
       <c r="A39" s="40">
         <v>36</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F39" s="38">
         <v>0.3</v>
@@ -2574,15 +2571,15 @@
       <c r="A40" s="40">
         <v>37</v>
       </c>
-      <c r="B40" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="57" t="s">
+      <c r="B40" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="39" t="s">
         <v>37</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>38</v>
       </c>
       <c r="F40" s="29">
         <v>0.8</v>
@@ -2593,11 +2590,11 @@
       <c r="A41" s="40">
         <v>38</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="58"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" s="29">
         <v>0.5</v>
@@ -2608,11 +2605,11 @@
       <c r="A42" s="40">
         <v>39</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="58"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="38">
         <v>0.8</v>
@@ -2623,11 +2620,11 @@
       <c r="A43" s="40">
         <v>40</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="58"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="38">
         <v>0.5</v>
@@ -2638,11 +2635,11 @@
       <c r="A44" s="40">
         <v>41</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="59"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="38">
         <v>0.4</v>
@@ -2653,13 +2650,13 @@
       <c r="A45" s="40">
         <v>42</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="57" t="s">
-        <v>43</v>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45" s="38">
         <v>0.4</v>
@@ -2670,11 +2667,11 @@
       <c r="A46" s="40">
         <v>43</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="58"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F46" s="38">
         <v>0.4</v>
@@ -2685,11 +2682,11 @@
       <c r="A47" s="40">
         <v>44</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="58"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" s="38">
         <v>0.8</v>
@@ -2700,11 +2697,11 @@
       <c r="A48" s="40">
         <v>45</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="58"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" s="38">
         <v>0.8</v>
@@ -2715,11 +2712,11 @@
       <c r="A49" s="40">
         <v>46</v>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F49" s="38">
         <v>0.6</v>
@@ -2730,13 +2727,13 @@
       <c r="A50" s="40">
         <v>47</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="57" t="s">
-        <v>46</v>
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" s="38">
         <v>0.6</v>
@@ -2747,129 +2744,129 @@
       <c r="A51" s="40">
         <v>48</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="58"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="59"/>
       <c r="E51" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F51" s="38">
-        <v>7.2</v>
-      </c>
-      <c r="G51" s="62" t="s">
-        <v>73</v>
+        <v>3.6</v>
+      </c>
+      <c r="G51" s="63" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="40">
         <v>49</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="58"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F52" s="38">
         <v>1.8</v>
       </c>
-      <c r="G52" s="64"/>
+      <c r="G52" s="65"/>
     </row>
     <row r="53" spans="1:7" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="40">
         <v>50</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="58"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F53" s="38">
         <v>2.7</v>
       </c>
-      <c r="G53" s="63"/>
+      <c r="G53" s="64"/>
     </row>
     <row r="54" spans="1:7" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="40">
         <v>51</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="58"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" s="38">
-        <v>3.2</v>
-      </c>
-      <c r="G54" s="60" t="s">
-        <v>63</v>
+        <v>4.8</v>
+      </c>
+      <c r="G54" s="61" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="40">
         <v>52</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="59"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="60"/>
       <c r="E55" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="38">
+        <v>73</v>
+      </c>
+      <c r="F55" s="43">
         <v>2.4</v>
       </c>
-      <c r="G55" s="61"/>
+      <c r="G55" s="62"/>
     </row>
     <row r="56" spans="1:7" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="40">
         <v>53</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="57" t="s">
-        <v>59</v>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58" t="s">
+        <v>58</v>
       </c>
       <c r="E56" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="38">
+        <v>1.8</v>
+      </c>
+      <c r="G56" s="61" t="s">
         <v>61</v>
-      </c>
-      <c r="F56" s="38">
-        <v>3.6</v>
-      </c>
-      <c r="G56" s="60" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="40">
         <v>54</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="60"/>
       <c r="E57" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F57" s="38">
         <v>2.7</v>
       </c>
-      <c r="G57" s="61"/>
+      <c r="G57" s="62"/>
     </row>
     <row r="58" spans="1:7" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="40">
         <v>55</v>
       </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="47" t="s">
-        <v>48</v>
+      <c r="B58" s="56"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F58" s="38">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G58" s="42"/>
     </row>
@@ -2877,14 +2874,14 @@
       <c r="A59" s="40">
         <v>56</v>
       </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="47"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G59" s="42"/>
     </row>
@@ -2892,14 +2889,14 @@
       <c r="A60" s="40">
         <v>57</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="47"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" s="29">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G60" s="36"/>
     </row>
@@ -2907,11 +2904,11 @@
       <c r="A61" s="40">
         <v>58</v>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="47"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="48"/>
       <c r="E61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F61" s="29">
         <v>0.6</v>
@@ -2922,16 +2919,16 @@
       <c r="A62" s="40">
         <v>59</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="47" t="s">
-        <v>55</v>
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" s="37">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G62" s="36"/>
     </row>
@@ -2939,14 +2936,14 @@
       <c r="A63" s="40">
         <v>60</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="47"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="48"/>
       <c r="E63" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="F63" s="38">
-        <v>0.3</v>
+        <v>75</v>
+      </c>
+      <c r="F63" s="43">
+        <v>0.8</v>
       </c>
       <c r="G63" s="36"/>
     </row>
@@ -2954,14 +2951,14 @@
       <c r="A64" s="40">
         <v>61</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="47"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F64" s="38">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G64" s="36"/>
     </row>
@@ -2969,14 +2966,14 @@
       <c r="A65" s="40">
         <v>62</v>
       </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="47"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="48"/>
       <c r="E65" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F65" s="38">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G65" s="36"/>
     </row>
@@ -2984,14 +2981,14 @@
       <c r="A66" s="40">
         <v>63</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="47"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="48"/>
       <c r="E66" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F66" s="29">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G66" s="36"/>
     </row>
@@ -2999,68 +2996,68 @@
       <c r="A67" s="40">
         <v>64</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="47"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="48"/>
       <c r="E67" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F67" s="37">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="31" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="50" t="s">
+      <c r="A68" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="29">
         <f>SUM(F4:F67)</f>
-        <v>68.899999999999991</v>
+        <v>73.699999999999946</v>
       </c>
       <c r="G68" s="30"/>
     </row>
     <row r="69" spans="1:7" s="32" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52">
-        <f>F68*1.86</f>
-        <v>128.154</v>
-      </c>
-      <c r="G69" s="52"/>
+      <c r="A69" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="53">
+        <f>F68*2.14</f>
+        <v>157.7179999999999</v>
+      </c>
+      <c r="G69" s="53"/>
     </row>
     <row r="70" spans="1:7" s="31" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
+      <c r="A70" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
     </row>
     <row r="71" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3069,14 +3066,11 @@
     <mergeCell ref="D18:D23"/>
     <mergeCell ref="D4:D9"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="D56:D57"/>
     <mergeCell ref="D24:D32"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G54:G55"/>
     <mergeCell ref="D50:D55"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="G33:G35"/>
@@ -3088,6 +3082,9 @@
     <mergeCell ref="D40:D44"/>
     <mergeCell ref="D62:D67"/>
     <mergeCell ref="D58:D61"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="G54:G55"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B3:C3"/>
